--- a/盟军关卡.xlsx
+++ b/盟军关卡.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459">
   <si>
     <t>地图名称：斧青谷</t>
   </si>
@@ -1358,6 +1358,39 @@
   </si>
   <si>
     <t>掉血值 ＝ 攻击者的攻 － 被攻击者的防/1.5</t>
+  </si>
+  <si>
+    <t>关卡 95 [精英关] 闯关消耗：3800万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 100 [精英关] 闯关消耗：4000万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>关卡 105 [精英关] 闯关消耗：4200万，3活力 可获经验：★×5点</t>
+  </si>
+  <si>
+    <t>精英关100%掉：※增加金钱，※增加元宝，※元神+3，</t>
+  </si>
+  <si>
+    <t>精英关100%掉：※增加金钱，※增加元宝，※元神+4，</t>
+  </si>
+  <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，※增加元宝，潜能_金刚+4，宝箱_+2，</t>
+  </si>
+  <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，※增加元宝，潜能_神行+4，宝箱_+2，</t>
+  </si>
+  <si>
+    <t>精英关 20%掉：※宝箱，※增加金钱，※增加元宝，潜能_血牛+4，宝箱_+3，材料_冰蚕丝，材料_玄火晶，※元神+5，</t>
+  </si>
+  <si>
+    <t>精英关  2%掉：※元神+4，宝箱_+3，</t>
+  </si>
+  <si>
+    <t>精英关  2%掉：※元神+5，宝箱_+4，</t>
+  </si>
+  <si>
+    <t>精英关  2%掉：※元神+5，宝箱_+4，通用材料箱，</t>
   </si>
 </sst>
 </file>
@@ -2323,12 +2356,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4855,6 +4888,50 @@
         <v>447</v>
       </c>
     </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>448</v>
+      </c>
+      <c r="D51" t="s">
+        <v>449</v>
+      </c>
+      <c r="F51" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>451</v>
+      </c>
+      <c r="D52" t="s">
+        <v>452</v>
+      </c>
+      <c r="F52" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>453</v>
+      </c>
+      <c r="D53" t="s">
+        <v>454</v>
+      </c>
+      <c r="F53" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
+        <v>456</v>
+      </c>
+      <c r="D54" t="s">
+        <v>457</v>
+      </c>
+      <c r="F54" t="s">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
